--- a/TestData/SampleTestData.xlsx
+++ b/TestData/SampleTestData.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>S.No.</t>
   </si>
@@ -157,7 +157,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -253,40 +252,40 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -300,10 +299,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -461,7 +460,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -470,13 +469,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -486,7 +485,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -495,7 +494,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -514,12 +513,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -550,7 +549,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -569,7 +568,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -581,7 +580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -590,8 +589,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,12 +627,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -642,14 +641,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="42.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="49.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -971,19 +970,19 @@
       <c r="K10" s="11"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/SampleTestData.xlsx
+++ b/TestData/SampleTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>S.No.</t>
   </si>
@@ -60,104 +60,80 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Roles New Test1</t>
-  </si>
-  <si>
-    <t>Login to the Application and Navigate to Roles Page</t>
-  </si>
-  <si>
-    <t>Roles New Test2</t>
-  </si>
-  <si>
-    <t>SendKeys</t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
-    <t>Click on Settings icon</t>
-  </si>
-  <si>
-    <t>Click on Roles Field</t>
-  </si>
-  <si>
-    <t>RepeatedLocators</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Click on New tab</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a new role and check it in List Page </t>
-  </si>
-  <si>
-    <t>Enter the data in Name Field</t>
-  </si>
-  <si>
-    <t>Enter the data in Description Field</t>
-  </si>
-  <si>
-    <t>Click on Check Box</t>
-  </si>
-  <si>
-    <t>Prodifi.rolesLandingPage.nameField</t>
-  </si>
-  <si>
-    <t>Prodifi.rolesLandingPage.descriptionField</t>
-  </si>
-  <si>
-    <t>Prodifi.rolesLandingPage.localeAddCheckBox</t>
-  </si>
-  <si>
-    <t>Business Analyst</t>
-  </si>
-  <si>
-    <t>Testing description</t>
-  </si>
-  <si>
-    <t>Click on Create Button</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Check if the created Role appears on the Roles Landing Page</t>
-  </si>
-  <si>
-    <t>Prodify.rolesLandingPage.settings</t>
-  </si>
-  <si>
-    <t>Prodify.rolesLandingPage.roles</t>
-  </si>
-  <si>
-    <t>AssertionInList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyst </t>
-  </si>
-  <si>
-    <t>Analyst 3</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Login into the Application</t>
+    <t>Login Test1</t>
+  </si>
+  <si>
+    <t>Blank UserName and Password</t>
+  </si>
+  <si>
+    <t>Open the Brower</t>
+  </si>
+  <si>
+    <t>LaunchBrowser</t>
+  </si>
+  <si>
+    <t>http://172.17.2.182:8081</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Check username validation</t>
+  </si>
+  <si>
+    <t>Check password validation</t>
+  </si>
+  <si>
+    <t>Close the browser</t>
+  </si>
+  <si>
+    <t>CloseBrowser</t>
+  </si>
+  <si>
+    <t>Click on username field</t>
+  </si>
+  <si>
+    <t>Prodifi.login.password</t>
+  </si>
+  <si>
+    <t>Prodifi.login.username</t>
+  </si>
+  <si>
+    <t>ToolTipAssertion</t>
+  </si>
+  <si>
+    <t>Press tab to enter into password field</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Press tab to click on login icon</t>
+  </si>
+  <si>
+    <t>Prodifi.login.blankUsernameValidationMsg</t>
+  </si>
+  <si>
+    <t>Prodifi.login.blankPasswordValidationMsg</t>
+  </si>
+  <si>
+    <t>Click on login icon</t>
+  </si>
+  <si>
+    <t>Prodifi.login.disabledLoginbutton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,14 +157,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF263238"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,12 +187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,10 +228,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,9 +240,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -275,13 +250,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,20 +582,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -633,10 +595,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,322 +614,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="11"/>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/SampleTestData.xlsx
+++ b/TestData/SampleTestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>S.No.</t>
   </si>
@@ -42,98 +42,122 @@
     <t>KeyWord</t>
   </si>
   <si>
-    <t>Locator</t>
-  </si>
-  <si>
-    <t>Test Data 1</t>
-  </si>
-  <si>
-    <t>TestData2</t>
-  </si>
-  <si>
-    <t>Test Data 3</t>
-  </si>
-  <si>
-    <t>TestData4</t>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Open the Brower</t>
+  </si>
+  <si>
+    <t>LaunchBrowser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Locator 1</t>
+  </si>
+  <si>
+    <t>Locator 2</t>
+  </si>
+  <si>
+    <t>TestData 1</t>
+  </si>
+  <si>
+    <t>Test Data 2</t>
+  </si>
+  <si>
+    <t>http://prodifitest.mrrsoft.com:8081</t>
+  </si>
+  <si>
+    <t>SendKeys</t>
+  </si>
+  <si>
+    <t>testwe@yopmail.com</t>
+  </si>
+  <si>
+    <t>TestData 3</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Login Test1</t>
-  </si>
-  <si>
-    <t>Blank UserName and Password</t>
-  </si>
-  <si>
-    <t>Open the Brower</t>
-  </si>
-  <si>
-    <t>LaunchBrowser</t>
-  </si>
-  <si>
-    <t>http://172.17.2.182:8081</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Check username validation</t>
-  </si>
-  <si>
-    <t>Check password validation</t>
-  </si>
-  <si>
-    <t>Close the browser</t>
-  </si>
-  <si>
-    <t>CloseBrowser</t>
-  </si>
-  <si>
-    <t>Click on username field</t>
-  </si>
-  <si>
-    <t>Prodifi.login.password</t>
-  </si>
-  <si>
-    <t>Prodifi.login.username</t>
-  </si>
-  <si>
-    <t>ToolTipAssertion</t>
-  </si>
-  <si>
-    <t>Press tab to enter into password field</t>
-  </si>
-  <si>
-    <t>Tab</t>
-  </si>
-  <si>
-    <t>Press tab to click on login icon</t>
-  </si>
-  <si>
-    <t>Prodifi.login.blankUsernameValidationMsg</t>
-  </si>
-  <si>
-    <t>Prodifi.login.blankPasswordValidationMsg</t>
-  </si>
-  <si>
-    <t>Click on login icon</t>
-  </si>
-  <si>
-    <t>Prodifi.login.disabledLoginbutton</t>
+    <t>Check if the created role exist in Role Landing Page</t>
+  </si>
+  <si>
+    <t>Roles New Test1</t>
+  </si>
+  <si>
+    <t>Login to the Application and Navigate to Roles Page</t>
+  </si>
+  <si>
+    <t>Enter correct username</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.username</t>
+  </si>
+  <si>
+    <t>Enter correct password</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.password</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>click on login</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.loginbutton</t>
+  </si>
+  <si>
+    <t>Click on Settings icon</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.settings</t>
+  </si>
+  <si>
+    <t>Click on Roles Field</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.roles</t>
+  </si>
+  <si>
+    <t>FindInList</t>
+  </si>
+  <si>
+    <t>Click on two dots</t>
+  </si>
+  <si>
+    <t>Click on Edit this Role</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.editThisRole</t>
+  </si>
+  <si>
+    <t>click on Product Add access</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.localeAddCheckBox</t>
+  </si>
+  <si>
+    <t>Click on update button</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.updateButton</t>
+  </si>
+  <si>
+    <t>Accountant 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,14 +176,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,12 +243,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,11 +276,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,7 +583,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,8 +607,8 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -595,22 +621,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -630,255 +657,333 @@
         <v>7</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
+      <c r="A8" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
